--- a/techniqo/data_new_ticker/MGL.xlsx
+++ b/techniqo/data_new_ticker/MGL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1041"/>
+  <dimension ref="A1:G1043"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36821,6 +36821,56 @@
         <v>18519</v>
       </c>
     </row>
+    <row r="1042">
+      <c r="A1042" t="inlineStr">
+        <is>
+          <t>15-09-2020</t>
+        </is>
+      </c>
+      <c r="B1042" t="n">
+        <v>939.45</v>
+      </c>
+      <c r="C1042" t="n">
+        <v>941</v>
+      </c>
+      <c r="D1042" t="n">
+        <v>917.5</v>
+      </c>
+      <c r="E1042" t="n">
+        <v>936.55</v>
+      </c>
+      <c r="F1042" t="n">
+        <v>714646</v>
+      </c>
+      <c r="G1042" t="n">
+        <v>18520</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043" t="inlineStr">
+        <is>
+          <t>16-09-2020</t>
+        </is>
+      </c>
+      <c r="B1043" t="n">
+        <v>917</v>
+      </c>
+      <c r="C1043" t="n">
+        <v>920</v>
+      </c>
+      <c r="D1043" t="n">
+        <v>905</v>
+      </c>
+      <c r="E1043" t="n">
+        <v>909.3</v>
+      </c>
+      <c r="F1043" t="n">
+        <v>1016046</v>
+      </c>
+      <c r="G1043" t="n">
+        <v>18521</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/techniqo/data_new_ticker/MGL.xlsx
+++ b/techniqo/data_new_ticker/MGL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1043"/>
+  <dimension ref="A1:G1045"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36871,6 +36871,56 @@
         <v>18521</v>
       </c>
     </row>
+    <row r="1044">
+      <c r="A1044" t="inlineStr">
+        <is>
+          <t>17-09-2020</t>
+        </is>
+      </c>
+      <c r="B1044" t="n">
+        <v>911.6</v>
+      </c>
+      <c r="C1044" t="n">
+        <v>918</v>
+      </c>
+      <c r="D1044" t="n">
+        <v>904.05</v>
+      </c>
+      <c r="E1044" t="n">
+        <v>911.7</v>
+      </c>
+      <c r="F1044" t="n">
+        <v>430542</v>
+      </c>
+      <c r="G1044" t="n">
+        <v>18522</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045" t="inlineStr">
+        <is>
+          <t>18-09-2020</t>
+        </is>
+      </c>
+      <c r="B1045" t="n">
+        <v>916</v>
+      </c>
+      <c r="C1045" t="n">
+        <v>928.75</v>
+      </c>
+      <c r="D1045" t="n">
+        <v>911.9</v>
+      </c>
+      <c r="E1045" t="n">
+        <v>919.15</v>
+      </c>
+      <c r="F1045" t="n">
+        <v>1072290</v>
+      </c>
+      <c r="G1045" t="n">
+        <v>18523</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
